--- a/Java/BGTransport/src/main/resources/excel/pullman_stop_list.xlsx
+++ b/Java/BGTransport/src/main/resources/excel/pullman_stop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/86d5980519d90a03/Desktop/BGTransports/Java/BGTransport/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BCB2EFF-ABEF-42A3-BA4B-56ED3A079C0E}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{F52A1665-4A96-4E8E-9E70-37CF0E18A79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515291E5-FCA5-4722-B75F-03C7AE3E9D22}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C5C4A483-4445-4EA3-8165-95B06087C953}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="632">
   <si>
     <t>piazza Libertà</t>
   </si>
@@ -4384,42 +4384,6 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5392,6 +5356,42 @@
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5406,32 +5406,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{872CAA4A-EC0F-472F-9051-8F1D93EE0D04}" name="Tabella16" displayName="Tabella16" ref="A1:C289" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{872CAA4A-EC0F-472F-9051-8F1D93EE0D04}" name="Tabella16" displayName="Tabella16" ref="A1:C289" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:C289" xr:uid="{872CAA4A-EC0F-472F-9051-8F1D93EE0D04}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C289">
+    <sortCondition ref="A1:A289"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EBC41999-1387-4863-A753-E6FEBD4D4656}" name="name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7B1055BF-2FFF-45AC-BC46-4AA68538BB1C}" name="town" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E41F69DF-A9B8-462F-BF5A-52C8E5D744FA}" name="province" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EBC41999-1387-4863-A753-E6FEBD4D4656}" name="name" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{7B1055BF-2FFF-45AC-BC46-4AA68538BB1C}" name="town" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{E41F69DF-A9B8-462F-BF5A-52C8E5D744FA}" name="province" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7E7701E4-AF31-4B40-9822-8D59FF66AB43}" name="Tabella9" displayName="Tabella9" ref="Q1:Q269" totalsRowShown="0" dataDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7E7701E4-AF31-4B40-9822-8D59FF66AB43}" name="Tabella9" displayName="Tabella9" ref="Q1:Q269" totalsRowShown="0" dataDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="Q1:Q269" xr:uid="{6DB4DF9B-6229-4EEC-B658-BF4D2140B9A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q2:Q269">
     <sortCondition ref="Q1:Q269"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D078E2C0-16F3-4CA5-97EE-394B6777F393}" name="LINEA 10" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{D078E2C0-16F3-4CA5-97EE-394B6777F393}" name="LINEA 10" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0C179D31-4422-4C13-B7A1-F3081F79A773}" name="Tabella10" displayName="Tabella10" ref="S1:S3" totalsRowShown="0" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0C179D31-4422-4C13-B7A1-F3081F79A773}" name="Tabella10" displayName="Tabella10" ref="S1:S3" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="S1:S3" xr:uid="{B8D7A30D-4B95-4894-9752-612349D8F688}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:S3">
     <sortCondition ref="S1:S3"/>
@@ -5444,169 +5447,169 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BF91E08D-FB54-4869-90DD-C651C9DD7768}" name="Tabella11" displayName="Tabella11" ref="U1:U18" totalsRowShown="0" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{BF91E08D-FB54-4869-90DD-C651C9DD7768}" name="Tabella11" displayName="Tabella11" ref="U1:U18" totalsRowShown="0" dataDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="U1:U18" xr:uid="{0F48D0FC-BEA0-40B8-BC46-A43F48CB1686}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="U2:U18">
     <sortCondition ref="U1:U18"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{16038B9D-12FC-448D-B3D4-437D4270F559}" name="LINEA 26" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{16038B9D-12FC-448D-B3D4-437D4270F559}" name="LINEA 26" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BB7B0EC9-F59D-488E-8251-B7A6B2BC28FA}" name="Tabella12" displayName="Tabella12" ref="W1:W17" totalsRowShown="0" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{BB7B0EC9-F59D-488E-8251-B7A6B2BC28FA}" name="Tabella12" displayName="Tabella12" ref="W1:W17" totalsRowShown="0" dataDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="W1:W17" xr:uid="{522F1366-6CB1-448B-9EFD-43C56FF73D15}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W2:W17">
     <sortCondition ref="W1:W17"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{82FED790-4E0D-4E61-8B81-7F7E3F2E92F5}" name="LINEA 27" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{82FED790-4E0D-4E61-8B81-7F7E3F2E92F5}" name="LINEA 27" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{79F9F97E-FB22-4776-8A5A-D826FB6DFDFC}" name="Tabella13" displayName="Tabella13" ref="Y1:Y30" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{79F9F97E-FB22-4776-8A5A-D826FB6DFDFC}" name="Tabella13" displayName="Tabella13" ref="Y1:Y30" totalsRowShown="0" dataDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="Y1:Y30" xr:uid="{C6FAF91D-A494-4CF9-910E-DEFE86C18612}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Y2:Y30">
     <sortCondition ref="Y1:Y30"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{77F921D7-BF58-4C1B-AA41-25C4B3F12837}" name="LINEA 28" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{77F921D7-BF58-4C1B-AA41-25C4B3F12837}" name="LINEA 28" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D65D62E8-896D-4729-97AB-D793CE5618C8}" name="Tabella14" displayName="Tabella14" ref="AA1:AA31" totalsRowShown="0" dataDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D65D62E8-896D-4729-97AB-D793CE5618C8}" name="Tabella14" displayName="Tabella14" ref="AA1:AA31" totalsRowShown="0" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="AA1:AA31" xr:uid="{38E3C446-6ED9-47EC-B7F1-9C2F3F84E9BE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AA2:AA31">
     <sortCondition ref="AA1:AA31"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B7D662D3-DF24-440B-9774-C9708608B6F2}" name="LINEA MK" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B7D662D3-DF24-440B-9774-C9708608B6F2}" name="LINEA MK" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B8B0F0F2-1591-4301-9D04-3CF33D82810A}" name="Tabella15" displayName="Tabella15" ref="AC1:AC12" totalsRowShown="0" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{B8B0F0F2-1591-4301-9D04-3CF33D82810A}" name="Tabella15" displayName="Tabella15" ref="AC1:AC12" totalsRowShown="0" dataDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="AC1:AC12" xr:uid="{8BC772FF-B660-4CFA-8B20-24A9AB3A286F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC2:AC12">
     <sortCondition ref="AC1:AC12"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{803F9EF5-235E-4880-AAA0-DD22BCA9BB22}" name="LINEA 30" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{803F9EF5-235E-4880-AAA0-DD22BCA9BB22}" name="LINEA 30" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2E7F91-A18B-4801-B61F-D7499CCFF2DE}" name="Tabella1" displayName="Tabella1" ref="A1:A1106" totalsRowShown="0" dataDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D2E7F91-A18B-4801-B61F-D7499CCFF2DE}" name="Tabella1" displayName="Tabella1" ref="A1:A1106" totalsRowShown="0" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A1:A1106" xr:uid="{A12CE5F4-9F9B-468E-BDCE-722069ECC847}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A1106">
     <sortCondition ref="A1:A1106"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{733F3760-2418-4D6A-AE3D-511ABA42EDFA}" name="LINEA 1" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{733F3760-2418-4D6A-AE3D-511ABA42EDFA}" name="LINEA 1" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46432A07-E812-409C-BAF9-C6840E522C24}" name="Tabella2" displayName="Tabella2" ref="C1:C59" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{46432A07-E812-409C-BAF9-C6840E522C24}" name="Tabella2" displayName="Tabella2" ref="C1:C59" totalsRowShown="0" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="C1:C59" xr:uid="{AECEF87F-7CAB-4C10-8261-C321FB337F22}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C59">
     <sortCondition ref="C1:C59"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{7F68A971-6629-44F0-9FA2-9AE50C1E32C9}" name="LINEA 3" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{7F68A971-6629-44F0-9FA2-9AE50C1E32C9}" name="LINEA 3" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53A0456A-BFEB-4A13-82F0-46C5F283C645}" name="Tabella3" displayName="Tabella3" ref="E1:E2050" totalsRowShown="0" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53A0456A-BFEB-4A13-82F0-46C5F283C645}" name="Tabella3" displayName="Tabella3" ref="E1:E2050" totalsRowShown="0" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="E1:E2050" xr:uid="{7B4549FA-9EA2-42AA-AEC6-C61E52B5293D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E2050">
     <sortCondition ref="E1:E2050"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{C6A6EFF2-54AD-4956-8C1C-99D41A980BCF}" name="LINEA 5" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{C6A6EFF2-54AD-4956-8C1C-99D41A980BCF}" name="LINEA 5" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B77435DB-9D57-48D5-8515-6E3363DFD4C7}" name="Tabella4" displayName="Tabella4" ref="G1:G435" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B77435DB-9D57-48D5-8515-6E3363DFD4C7}" name="Tabella4" displayName="Tabella4" ref="G1:G435" totalsRowShown="0" dataDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="G1:G435" xr:uid="{9E5B97AC-432E-419F-8C31-20186045300E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:G435">
     <sortCondition ref="G1:G435"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CBA73F62-1D7F-47E5-98D4-8D1D49B3FD52}" name="LINEA 6" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{CBA73F62-1D7F-47E5-98D4-8D1D49B3FD52}" name="LINEA 6" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01EABB16-4592-476D-ABB6-42CC76BCE81B}" name="Tabella5" displayName="Tabella5" ref="I1:I258" totalsRowShown="0" dataDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{01EABB16-4592-476D-ABB6-42CC76BCE81B}" name="Tabella5" displayName="Tabella5" ref="I1:I258" totalsRowShown="0" dataDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="I1:I258" xr:uid="{C94618B6-76ED-4B70-996D-90665ABCF08A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I258">
     <sortCondition ref="I1:I258"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{205EA272-FDEC-444E-8F64-FFC6228DD82A}" name="LINEA 7" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{205EA272-FDEC-444E-8F64-FFC6228DD82A}" name="LINEA 7" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B66C2D6F-ABEB-4170-AC0B-699DC39FAB97}" name="Tabella6" displayName="Tabella6" ref="K1:K501" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B66C2D6F-ABEB-4170-AC0B-699DC39FAB97}" name="Tabella6" displayName="Tabella6" ref="K1:K501" totalsRowShown="0" dataDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="K1:K501" xr:uid="{C2CC4985-9E3A-4ABB-8A96-75D44FA72E77}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K2:K501">
     <sortCondition ref="K1:K501"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CB643D9A-7F6A-4486-8B02-9848B9C23D70}" name="LINEA 8" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{CB643D9A-7F6A-4486-8B02-9848B9C23D70}" name="LINEA 8" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{54D758F2-20D4-4FC0-B6AA-6967FB4137BC}" name="Tabella7" displayName="Tabella7" ref="M1:M454" totalsRowShown="0" dataDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{54D758F2-20D4-4FC0-B6AA-6967FB4137BC}" name="Tabella7" displayName="Tabella7" ref="M1:M454" totalsRowShown="0" dataDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="M1:M454" xr:uid="{3BBC9660-75CA-4A97-AAAE-DF485278B45A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:M454">
     <sortCondition ref="M1:M454"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{B629FAE9-F454-4C0A-91CA-B4A8F094EAAD}" name="LINEA 9" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B629FAE9-F454-4C0A-91CA-B4A8F094EAAD}" name="LINEA 9" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6223FB55-6FEE-40C6-9E06-D199E60537C0}" name="Tabella8" displayName="Tabella8" ref="O1:O663" totalsRowShown="0" dataDxfId="26" tableBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{6223FB55-6FEE-40C6-9E06-D199E60537C0}" name="Tabella8" displayName="Tabella8" ref="O1:O663" totalsRowShown="0" dataDxfId="21" tableBorderDxfId="20">
   <autoFilter ref="O1:O663" xr:uid="{1368AAC2-82F0-40E5-9F62-124F880314A0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O663">
     <sortCondition ref="O1:O663"/>
   </sortState>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{ADF7AB83-B4D9-4A07-8925-C71DAFC182DD}" name="LINEA C" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{ADF7AB83-B4D9-4A07-8925-C71DAFC182DD}" name="LINEA C" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5912,7 +5915,7 @@
   <dimension ref="A1:C289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7497,7 +7500,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>469</v>
@@ -7508,7 +7511,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>469</v>
@@ -7519,7 +7522,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>469</v>
@@ -7530,10 +7533,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>469</v>
+        <v>304</v>
       </c>
       <c r="C147" s="18" t="s">
         <v>305</v>
@@ -7541,7 +7544,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>304</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>304</v>
@@ -7563,7 +7566,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>304</v>
@@ -7574,10 +7577,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>304</v>
+        <v>483</v>
       </c>
       <c r="C151" s="18" t="s">
         <v>305</v>
@@ -7585,7 +7588,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>483</v>
@@ -7596,7 +7599,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>483</v>
@@ -7607,7 +7610,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>483</v>
@@ -7618,7 +7621,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>483</v>
@@ -7629,10 +7632,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="C156" s="18" t="s">
         <v>305</v>
@@ -7640,7 +7643,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>489</v>
@@ -7651,10 +7654,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>489</v>
+        <v>304</v>
       </c>
       <c r="C158" s="18" t="s">
         <v>305</v>
@@ -7662,7 +7665,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B159" s="18" t="s">
         <v>304</v>
@@ -7673,7 +7676,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B160" s="18" t="s">
         <v>304</v>
@@ -7684,7 +7687,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B161" s="18" t="s">
         <v>304</v>
@@ -7695,10 +7698,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="C162" s="18" t="s">
         <v>305</v>
@@ -7706,10 +7709,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B163" s="18" t="s">
-        <v>372</v>
+        <v>497</v>
       </c>
       <c r="C163" s="18" t="s">
         <v>305</v>
@@ -7717,7 +7720,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B164" s="18" t="s">
         <v>497</v>
@@ -7728,7 +7731,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B165" s="18" t="s">
         <v>497</v>
@@ -7739,7 +7742,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>497</v>
@@ -7750,7 +7753,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>497</v>
@@ -7761,7 +7764,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>497</v>
@@ -7772,10 +7775,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="C169" s="18" t="s">
         <v>305</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>504</v>
@@ -7794,7 +7797,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>504</v>
@@ -7805,7 +7808,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>504</v>
@@ -7816,7 +7819,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>504</v>
@@ -7827,7 +7830,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>1</v>
+        <v>508</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>504</v>
@@ -7838,7 +7841,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>504</v>
@@ -7849,7 +7852,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>504</v>
@@ -7860,7 +7863,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>504</v>
@@ -7871,7 +7874,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>504</v>
@@ -7882,7 +7885,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>504</v>
@@ -7893,7 +7896,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>504</v>
@@ -7904,7 +7907,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>504</v>
@@ -7915,7 +7918,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>504</v>
@@ -7926,7 +7929,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>504</v>
@@ -7937,7 +7940,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>504</v>
@@ -7948,10 +7951,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B185" s="18" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C185" s="18" t="s">
         <v>305</v>
@@ -7959,7 +7962,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>520</v>
@@ -7970,7 +7973,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>520</v>
@@ -7981,7 +7984,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>520</v>
@@ -7992,7 +7995,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>520</v>
@@ -8003,10 +8006,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B190" s="18" t="s">
-        <v>520</v>
+        <v>304</v>
       </c>
       <c r="C190" s="18" t="s">
         <v>305</v>
@@ -8014,7 +8017,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>304</v>
@@ -8025,10 +8028,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B192" s="18" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="C192" s="18" t="s">
         <v>305</v>
@@ -8036,7 +8039,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B193" s="18" t="s">
         <v>350</v>
@@ -8047,7 +8050,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>350</v>
@@ -8058,7 +8061,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>350</v>
@@ -8069,7 +8072,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>350</v>
@@ -8080,7 +8083,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>350</v>
@@ -8091,10 +8094,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B198" s="18" t="s">
-        <v>350</v>
+        <v>534</v>
       </c>
       <c r="C198" s="18" t="s">
         <v>305</v>
@@ -8102,7 +8105,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B199" s="18" t="s">
         <v>534</v>
@@ -8113,7 +8116,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B200" s="18" t="s">
         <v>534</v>
@@ -8124,7 +8127,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B201" s="18" t="s">
         <v>534</v>
@@ -8135,7 +8138,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B202" s="18" t="s">
         <v>534</v>
@@ -8146,10 +8149,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C203" s="18" t="s">
         <v>305</v>
@@ -8157,7 +8160,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B204" s="18" t="s">
         <v>540</v>
@@ -8168,7 +8171,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B205" s="18" t="s">
         <v>540</v>
@@ -8179,10 +8182,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B206" s="18" t="s">
-        <v>540</v>
+        <v>304</v>
       </c>
       <c r="C206" s="18" t="s">
         <v>305</v>
@@ -8190,10 +8193,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B207" s="18" t="s">
-        <v>304</v>
+        <v>545</v>
       </c>
       <c r="C207" s="18" t="s">
         <v>305</v>
@@ -8201,7 +8204,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>545</v>
@@ -8212,7 +8215,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B209" s="18" t="s">
         <v>545</v>
@@ -8223,7 +8226,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>545</v>
@@ -8234,7 +8237,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B211" s="18" t="s">
         <v>545</v>
@@ -8245,10 +8248,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>545</v>
+        <v>304</v>
       </c>
       <c r="C212" s="18" t="s">
         <v>305</v>
@@ -8256,7 +8259,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B213" s="18" t="s">
         <v>304</v>
@@ -8267,10 +8270,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B214" s="18" t="s">
-        <v>304</v>
+        <v>553</v>
       </c>
       <c r="C214" s="18" t="s">
         <v>305</v>
@@ -8278,7 +8281,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B215" s="18" t="s">
         <v>553</v>
@@ -8289,7 +8292,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B216" s="18" t="s">
         <v>553</v>
@@ -8300,7 +8303,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B217" s="18" t="s">
         <v>553</v>
@@ -8311,7 +8314,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B218" s="18" t="s">
         <v>553</v>
@@ -8322,7 +8325,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B219" s="18" t="s">
         <v>553</v>
@@ -8333,7 +8336,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B220" s="18" t="s">
         <v>553</v>
@@ -8344,7 +8347,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B221" s="18" t="s">
         <v>553</v>
@@ -8355,7 +8358,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B222" s="18" t="s">
         <v>553</v>
@@ -8366,10 +8369,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B223" s="18" t="s">
-        <v>553</v>
+        <v>304</v>
       </c>
       <c r="C223" s="18" t="s">
         <v>305</v>
@@ -8377,7 +8380,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B224" s="18" t="s">
         <v>304</v>
@@ -8388,7 +8391,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B225" s="18" t="s">
         <v>304</v>
@@ -8399,7 +8402,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B226" s="18" t="s">
         <v>304</v>
@@ -8410,10 +8413,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="C227" s="18" t="s">
         <v>305</v>
@@ -8421,10 +8424,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="18" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="C228" s="18" t="s">
         <v>305</v>
@@ -8432,7 +8435,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B229" s="18" t="s">
         <v>304</v>
@@ -8443,7 +8446,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B230" s="18" t="s">
         <v>304</v>
@@ -8454,7 +8457,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B231" s="18" t="s">
         <v>304</v>
@@ -8465,7 +8468,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B232" s="18" t="s">
         <v>304</v>
@@ -8476,7 +8479,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B233" s="18" t="s">
         <v>304</v>
@@ -8487,7 +8490,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B234" s="18" t="s">
         <v>304</v>
@@ -8498,7 +8501,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B235" s="18" t="s">
         <v>304</v>
@@ -8509,7 +8512,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B236" s="18" t="s">
         <v>304</v>
@@ -8520,7 +8523,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B237" s="18" t="s">
         <v>304</v>
@@ -8531,7 +8534,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B238" s="18" t="s">
         <v>304</v>
@@ -8542,7 +8545,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B239" s="18" t="s">
         <v>304</v>
@@ -8553,7 +8556,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="18" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B240" s="18" t="s">
         <v>304</v>
@@ -8564,7 +8567,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B241" s="18" t="s">
         <v>304</v>
@@ -8575,7 +8578,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="18" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B242" s="18" t="s">
         <v>304</v>
@@ -8586,7 +8589,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="18" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B243" s="18" t="s">
         <v>304</v>
@@ -8597,7 +8600,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="18" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B244" s="18" t="s">
         <v>304</v>
@@ -8608,7 +8611,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B245" s="18" t="s">
         <v>304</v>
@@ -8619,7 +8622,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B246" s="18" t="s">
         <v>304</v>
@@ -8630,7 +8633,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B247" s="18" t="s">
         <v>304</v>
@@ -8641,7 +8644,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B248" s="18" t="s">
         <v>304</v>
@@ -8652,7 +8655,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B249" s="18" t="s">
         <v>304</v>
@@ -8663,7 +8666,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B250" s="18" t="s">
         <v>304</v>
@@ -8674,7 +8677,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B251" s="18" t="s">
         <v>304</v>
@@ -8685,7 +8688,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B252" s="18" t="s">
         <v>304</v>
@@ -8696,7 +8699,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B253" s="18" t="s">
         <v>304</v>
@@ -8707,7 +8710,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B254" s="18" t="s">
         <v>304</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B255" s="18" t="s">
         <v>304</v>
@@ -8729,7 +8732,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B256" s="18" t="s">
         <v>304</v>
@@ -8740,7 +8743,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B257" s="18" t="s">
         <v>304</v>
@@ -8751,7 +8754,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B258" s="18" t="s">
         <v>304</v>
@@ -8762,7 +8765,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B259" s="18" t="s">
         <v>304</v>
@@ -8773,7 +8776,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="18" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B260" s="18" t="s">
         <v>304</v>
@@ -8784,7 +8787,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="18" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B261" s="18" t="s">
         <v>304</v>
@@ -8795,7 +8798,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>304</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B263" s="18" t="s">
         <v>304</v>
@@ -8817,7 +8820,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B264" s="18" t="s">
         <v>304</v>
@@ -8828,7 +8831,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="18" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B265" s="18" t="s">
         <v>304</v>
@@ -8839,7 +8842,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="18" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B266" s="18" t="s">
         <v>304</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="18" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B267" s="18" t="s">
         <v>304</v>
@@ -8861,7 +8864,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="18" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B268" s="18" t="s">
         <v>304</v>
@@ -8872,7 +8875,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="18" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B269" s="18" t="s">
         <v>304</v>
@@ -8883,7 +8886,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="18" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B270" s="18" t="s">
         <v>304</v>
@@ -8894,7 +8897,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="18" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B271" s="18" t="s">
         <v>304</v>
@@ -8905,7 +8908,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="18" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B272" s="18" t="s">
         <v>304</v>
@@ -8916,7 +8919,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="18" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B273" s="18" t="s">
         <v>304</v>
@@ -8927,7 +8930,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="18" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B274" s="18" t="s">
         <v>304</v>
@@ -8938,7 +8941,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="18" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B275" s="18" t="s">
         <v>304</v>
@@ -8949,7 +8952,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="18" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B276" s="18" t="s">
         <v>304</v>
@@ -8960,7 +8963,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="18" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B277" s="18" t="s">
         <v>304</v>
@@ -8971,7 +8974,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B278" s="18" t="s">
         <v>304</v>
@@ -8982,7 +8985,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="18" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B279" s="18" t="s">
         <v>304</v>
@@ -8993,7 +8996,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="18" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B280" s="18" t="s">
         <v>304</v>
@@ -9004,7 +9007,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B281" s="18" t="s">
         <v>304</v>
@@ -9015,7 +9018,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="18" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B282" s="18" t="s">
         <v>304</v>
@@ -9026,7 +9029,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="18" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B283" s="18" t="s">
         <v>304</v>
@@ -9037,10 +9040,10 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="18" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="C284" s="18" t="s">
         <v>305</v>
@@ -9048,10 +9051,10 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="18" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B285" s="18" t="s">
-        <v>343</v>
+        <v>625</v>
       </c>
       <c r="C285" s="18" t="s">
         <v>305</v>
@@ -9059,7 +9062,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="18" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B286" s="18" t="s">
         <v>625</v>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="18" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B287" s="18" t="s">
         <v>625</v>
@@ -9081,25 +9084,19 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="18" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>625</v>
+        <v>304</v>
       </c>
       <c r="C288" s="18" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="B289" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C289" s="18" t="s">
-        <v>305</v>
-      </c>
+      <c r="A289" s="18"/>
+      <c r="B289" s="18"/>
+      <c r="C289" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
